--- a/data/sampling/ghg/ghg_data.xlsx
+++ b/data/sampling/ghg/ghg_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Liam/Desktop/UW/ECM/alhic1901_deep_layering/github/data/sampling/ghg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C74368-5C83-6747-A472-4AF5BCBB1B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86535AD2-1179-3746-AEE1-74CD75A41E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="760" windowWidth="29220" windowHeight="18880" xr2:uid="{5D78C863-DB51-414A-8C70-78F5C24BA3CE}"/>
+    <workbookView xWindow="180" yWindow="-21640" windowWidth="29220" windowHeight="18880" xr2:uid="{5D78C863-DB51-414A-8C70-78F5C24BA3CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="38">
   <si>
     <t>section</t>
   </si>
@@ -179,6 +179,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -214,9 +217,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC37B97-9650-DA43-B790-3970A5ED3209}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1233,7 +1237,7 @@
         <v>711.56288936566284</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1251,6 +1255,198 @@
       </c>
       <c r="F33" s="1">
         <v>743.06784778646261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>156.79900000000001</v>
+      </c>
+      <c r="D34">
+        <v>156.82900000000001</v>
+      </c>
+      <c r="E34">
+        <f>(C34+D34)/2</f>
+        <v>156.81400000000002</v>
+      </c>
+      <c r="G34" s="1">
+        <v>567.53034109412488</v>
+      </c>
+      <c r="H34" s="2">
+        <v>9.305033515712835E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>156.83000000000001</v>
+      </c>
+      <c r="D35">
+        <v>156.85900000000001</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:E41" si="0">(C35+D35)/2</f>
+        <v>156.84450000000001</v>
+      </c>
+      <c r="G35" s="1">
+        <v>541.7870376085981</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.10142986414336898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>156.86000000000001</v>
+      </c>
+      <c r="D36">
+        <v>156.88900000000001</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>156.87450000000001</v>
+      </c>
+      <c r="G36" s="1">
+        <v>544.69363399218207</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.10408078150319912</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>156.89700000000002</v>
+      </c>
+      <c r="D37">
+        <v>156.91900000000001</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>156.90800000000002</v>
+      </c>
+      <c r="G37" s="1">
+        <v>570.64606286429944</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.10197487540962179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>156.96</v>
+      </c>
+      <c r="D38">
+        <v>156.94900000000001</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>156.9545</v>
+      </c>
+      <c r="G38" s="1">
+        <v>554.98770044359424</v>
+      </c>
+      <c r="H38" s="2">
+        <v>8.9376775506879905E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>156.95000000000002</v>
+      </c>
+      <c r="D39">
+        <v>156.97900000000001</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>156.96450000000002</v>
+      </c>
+      <c r="G39" s="1">
+        <v>532.09055041227077</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.10579916320348218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>156.98000000000002</v>
+      </c>
+      <c r="D40">
+        <v>157.00900000000001</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>156.99450000000002</v>
+      </c>
+      <c r="G40" s="1">
+        <v>529.34462553646142</v>
+      </c>
+      <c r="H40" s="2">
+        <v>9.8586253797180265E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>157.01700000000002</v>
+      </c>
+      <c r="D41">
+        <v>157.04900000000001</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>157.03300000000002</v>
+      </c>
+      <c r="G41" s="1">
+        <v>564.33435437120465</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.10389318490035435</v>
       </c>
     </row>
   </sheetData>

--- a/data/sampling/ghg/ghg_data.xlsx
+++ b/data/sampling/ghg/ghg_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Liam/Desktop/UW/ECM/alhic1901_deep_layering/github/data/sampling/ghg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86535AD2-1179-3746-AEE1-74CD75A41E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46A63B8-E5CD-C646-B5E6-3DB60EEA6DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="-21640" windowWidth="29220" windowHeight="18880" xr2:uid="{5D78C863-DB51-414A-8C70-78F5C24BA3CE}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
   <si>
     <t>section</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>26 cm</t>
+  </si>
+  <si>
+    <t>d18O</t>
+  </si>
+  <si>
+    <t>dD</t>
+  </si>
+  <si>
+    <t>dxs</t>
   </si>
 </sst>
 </file>
@@ -555,15 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC37B97-9650-DA43-B790-3970A5ED3209}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +597,17 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -612,7 +630,7 @@
         <v>0.100997292</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -635,7 +653,7 @@
         <v>9.7894287999999996E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -658,7 +676,7 @@
         <v>9.3101737000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -681,7 +699,7 @@
         <v>9.6401944000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -704,7 +722,7 @@
         <v>0.100555226</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -727,7 +745,7 @@
         <v>9.6052947999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -750,7 +768,7 @@
         <v>9.6107177000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -773,7 +791,7 @@
         <v>9.9159223000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -796,7 +814,7 @@
         <v>8.5164080000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -816,7 +834,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -836,7 +854,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -856,7 +874,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -876,7 +894,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -896,7 +914,7 @@
         <v>818.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1255,7 @@
         <v>711.56288936566284</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1257,7 +1275,7 @@
         <v>743.06784778646261</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1280,8 +1298,17 @@
       <c r="H34" s="2">
         <v>9.305033515712835E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>-35.9</v>
+      </c>
+      <c r="J34">
+        <v>-285.98</v>
+      </c>
+      <c r="K34">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1304,8 +1331,17 @@
       <c r="H35" s="2">
         <v>0.10142986414336898</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>-35.270000000000003</v>
+      </c>
+      <c r="J35">
+        <v>-279.61</v>
+      </c>
+      <c r="K35">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1328,8 +1364,17 @@
       <c r="H36" s="2">
         <v>0.10408078150319912</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>-35.32</v>
+      </c>
+      <c r="J36">
+        <v>-279.70999999999998</v>
+      </c>
+      <c r="K36">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1352,8 +1397,17 @@
       <c r="H37" s="2">
         <v>0.10197487540962179</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>-36.15</v>
+      </c>
+      <c r="J37">
+        <v>-287.45</v>
+      </c>
+      <c r="K37">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1376,8 +1430,17 @@
       <c r="H38" s="2">
         <v>8.9376775506879905E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>-36.229999999999997</v>
+      </c>
+      <c r="J38">
+        <v>-287.79000000000002</v>
+      </c>
+      <c r="K38">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1400,8 +1463,17 @@
       <c r="H39" s="2">
         <v>0.10579916320348218</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>-36.76</v>
+      </c>
+      <c r="J39">
+        <v>-293.05</v>
+      </c>
+      <c r="K39">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1424,8 +1496,17 @@
       <c r="H40" s="2">
         <v>9.8586253797180265E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>-36.79</v>
+      </c>
+      <c r="J40">
+        <v>-293.38</v>
+      </c>
+      <c r="K40">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1447,6 +1528,15 @@
       </c>
       <c r="H41" s="2">
         <v>0.10389318490035435</v>
+      </c>
+      <c r="I41">
+        <v>-36.57</v>
+      </c>
+      <c r="J41">
+        <v>-291.25</v>
+      </c>
+      <c r="K41">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>
